--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,52 +40,61 @@
     <t>name</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>drop</t>
   </si>
   <si>
     <t>risk</t>
@@ -106,145 +115,163 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>better</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>give</t>
+    <t>available</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -605,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -716,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -724,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9361702127659575</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -766,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,7 +801,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
         <v>32</v>
@@ -792,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8717948717948718</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8378378378378378</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8184931506849316</v>
+        <v>0.7876712328767124</v>
       </c>
       <c r="C8">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D8">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8780487804878049</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L8">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,7 +1001,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -992,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L9">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="M9">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7297297297297297</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8732394366197183</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L10">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="M10">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.717948717948718</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>0.8611111111111112</v>
@@ -1124,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6274509803921569</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.85</v>
+        <v>0.859375</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1174,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5891472868217055</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="C13">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D13">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1216,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5503355704697986</v>
+        <v>0.5570469798657718</v>
       </c>
       <c r="C14">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>0.8235294117647058</v>
@@ -1274,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5111111111111111</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1292,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>23</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K15">
-        <v>0.82</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1316,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1324,13 +1351,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4933333333333333</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1342,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.80625</v>
+        <v>0.82</v>
       </c>
       <c r="L16">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1366,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,38 +1401,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4909090909090909</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L17">
         <v>27</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>27</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>28</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>0.8018867924528302</v>
-      </c>
-      <c r="L17">
-        <v>85</v>
-      </c>
-      <c r="M17">
-        <v>85</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1416,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1424,37 +1451,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4308510638297872</v>
+        <v>0.4867724867724867</v>
       </c>
       <c r="C18">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D18">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7806788511749347</v>
+        <v>0.80625</v>
       </c>
       <c r="L18">
-        <v>299</v>
+        <v>129</v>
       </c>
       <c r="M18">
-        <v>299</v>
+        <v>129</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1466,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1474,13 +1501,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4025974025974026</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>47</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L19">
         <v>46</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L19">
-        <v>49</v>
-      </c>
       <c r="M19">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1516,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1524,38 +1551,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.35</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L20">
         <v>28</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>28</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>52</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>0.7538461538461538</v>
-      </c>
-      <c r="L20">
-        <v>49</v>
-      </c>
-      <c r="M20">
-        <v>49</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1566,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1574,13 +1601,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2420634920634921</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="C21">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1592,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7441860465116279</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1616,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1624,13 +1651,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1876675603217158</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="C22">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1642,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>303</v>
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.7322033898305085</v>
+        <v>0.7676240208877284</v>
       </c>
       <c r="L22">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="M22">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1666,21 +1693,45 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.325</v>
+      </c>
+      <c r="C23">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>54</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.723404255319149</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L23">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M23">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1692,21 +1743,45 @@
         <v>0</v>
       </c>
       <c r="Q23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="C24">
+        <v>77</v>
+      </c>
+      <c r="D24">
+        <v>77</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>175</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L24">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.6705882352941176</v>
-      </c>
-      <c r="L24">
-        <v>228</v>
-      </c>
       <c r="M24">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1718,21 +1793,45 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>112</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.1957104557640751</v>
+      </c>
+      <c r="C25">
+        <v>73</v>
+      </c>
+      <c r="D25">
+        <v>73</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.651685393258427</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L25">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1744,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.6359832635983264</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L26">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1770,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.625</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1796,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.6142857142857143</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1822,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.6027397260273972</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1848,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5777777777777777</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1874,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5531914893617021</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1900,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.546875</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1926,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.5384615384615384</v>
+        <v>0.609375</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1952,21 +2051,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4918032786885246</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1978,47 +2077,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.2230769230769231</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M35">
+        <v>43</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>30</v>
-      </c>
-      <c r="N35">
-        <v>0.97</v>
-      </c>
-      <c r="O35">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>101</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.208133971291866</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L36">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2030,47 +2129,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>331</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.1588785046728972</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L37">
+        <v>44</v>
+      </c>
+      <c r="M37">
+        <v>44</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>34</v>
-      </c>
-      <c r="M37">
-        <v>35</v>
-      </c>
-      <c r="N37">
-        <v>0.97</v>
-      </c>
-      <c r="O37">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>180</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.15625</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L38">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2082,21 +2181,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>351</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.1533742331288344</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2108,21 +2207,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>138</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.1515151515151515</v>
+        <v>0.2900763358778626</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2134,15 +2233,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>140</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.1162790697674419</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L41">
         <v>25</v>
@@ -2160,177 +2259,177 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>190</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>0.1063829787234043</v>
+        <v>0.222488038277512</v>
       </c>
       <c r="L42">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M42">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>798</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>0.1011111111111111</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="L43">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="N43">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>809</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.0764525993883792</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="L44">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M44">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>302</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K45">
-        <v>0.07550077041602465</v>
+        <v>0.1757575757575758</v>
       </c>
       <c r="L45">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>600</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K46">
-        <v>0.06928406466512702</v>
+        <v>0.172093023255814</v>
       </c>
       <c r="L46">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M46">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>806</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K47">
-        <v>0.06594948550046772</v>
+        <v>0.1658653846153846</v>
       </c>
       <c r="L47">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="M47">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1997</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K48">
-        <v>0.05967078189300411</v>
+        <v>0.1487695749440716</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2342,85 +2441,241 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>457</v>
+        <v>761</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K49">
-        <v>0.02807357212003872</v>
+        <v>0.1406727828746177</v>
       </c>
       <c r="L49">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="M49">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="N49">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>3012</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K50">
-        <v>0.02587991718426501</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L50">
         <v>25</v>
       </c>
       <c r="M50">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>941</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.01160966426106056</v>
+        <v>0.1090534979423868</v>
       </c>
       <c r="L51">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M51">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N51">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>3150</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K52">
+        <v>0.1078582434514638</v>
+      </c>
+      <c r="L52">
+        <v>70</v>
+      </c>
+      <c r="M52">
+        <v>71</v>
+      </c>
+      <c r="N52">
+        <v>0.99</v>
+      </c>
+      <c r="O52">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K53">
+        <v>0.08758782201405152</v>
+      </c>
+      <c r="L53">
+        <v>187</v>
+      </c>
+      <c r="M53">
+        <v>195</v>
+      </c>
+      <c r="N53">
+        <v>0.96</v>
+      </c>
+      <c r="O53">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K54">
+        <v>0.07976878612716763</v>
+      </c>
+      <c r="L54">
+        <v>69</v>
+      </c>
+      <c r="M54">
+        <v>71</v>
+      </c>
+      <c r="N54">
+        <v>0.97</v>
+      </c>
+      <c r="O54">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K55">
+        <v>0.06992230854605994</v>
+      </c>
+      <c r="L55">
+        <v>63</v>
+      </c>
+      <c r="M55">
+        <v>63</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K56">
+        <v>0.04729510851959832</v>
+      </c>
+      <c r="L56">
+        <v>146</v>
+      </c>
+      <c r="M56">
+        <v>166</v>
+      </c>
+      <c r="N56">
+        <v>0.88</v>
+      </c>
+      <c r="O56">
+        <v>0.12</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K57">
+        <v>0.02359974826935179</v>
+      </c>
+      <c r="L57">
+        <v>75</v>
+      </c>
+      <c r="M57">
+        <v>98</v>
+      </c>
+      <c r="N57">
+        <v>0.77</v>
+      </c>
+      <c r="O57">
+        <v>0.23</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>3103</v>
       </c>
     </row>
   </sheetData>
